--- a/biology/Médecine/Fosse_temporale_(anatomie_humaine)/Fosse_temporale_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Fosse_temporale_(anatomie_humaine)/Fosse_temporale_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie humaine, la fosse temporale est une région de la partie latérale de la voûte crânienne. 
 </t>
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse temporale est une dépression peu profonde sur le côté du crâne délimitée 
 en haut par la ligne temporale supérieure de l'os pariétal,
@@ -547,7 +561,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Muscle temporal
 Artères temporales profondes
@@ -581,7 +597,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ptérion est situé dans la fosse temporale.
 Cliniquement, le ptérion est une zone importante car il recouvre la division antérieure de l'artère et de la veine méningées moyennes.
